--- a/DOCUMENTI DI PROGETTO/PROPOSTA DI PROGETTO/04.Informazioni progetto IS.xlsx
+++ b/DOCUMENTI DI PROGETTO/PROPOSTA DI PROGETTO/04.Informazioni progetto IS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crescenzo\Desktop\DOCUMENTI DI PROGETTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crescenzo\Desktop\UNI_PROJECT\DOCUMENTI DI PROGETTO\PROPOSTA DI PROGETTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Progetto</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>0512105812</t>
+  </si>
+  <si>
+    <t>0512105852</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,7 +677,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
